--- a/biology/Médecine/Malformations_congénitales_de_l'intestin_grêle/Malformations_congénitales_de_l'intestin_grêle.xlsx
+++ b/biology/Médecine/Malformations_congénitales_de_l'intestin_grêle/Malformations_congénitales_de_l'intestin_grêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Atrésies et sténoses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>atrésie du grêle
 sténoses
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Malrotations intestinales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>cæcum ascendant
 cæcum sous-hépatique
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -607,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Malformations_cong%C3%A9nitales_de_l%27intestin_gr%C3%AAle</t>
+          <t>Malformations_congénitales_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -625,7 +645,9 @@
           <t>Anomalies fonctionnelles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>malabsorption des glucides
 déficience en sucrase-isomaltase
